--- a/Tkinter Arquivos/tabela_exemplo (2).xlsx
+++ b/Tkinter Arquivos/tabela_exemplo (2).xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/clevison_santos_br_ey_com/Documents/Desktop/Python/12 - Exercíico - Tabela Interativa com Dados de Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/clevison_santos_br_ey_com/Documents/Desktop/Python/14 - Exercício - Tabela com Agrupamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CC0E5C0C-758F-4278-BECE-97C85E0E2609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E605248-1FD4-480B-B189-87D55CFDB8A6}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{CC0E5C0C-758F-4278-BECE-97C85E0E2609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B6F7CF0-A0C6-44DE-AB63-E7A0342D4AA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{46DA4A6C-269A-4526-AED4-8E220564D70D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$E$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Nome</t>
   </si>
@@ -62,9 +65,6 @@
     <t>Engenheira</t>
   </si>
   <si>
-    <t>7000.00</t>
-  </si>
-  <si>
     <t>Bruno</t>
   </si>
   <si>
@@ -74,9 +74,6 @@
     <t>Médico</t>
   </si>
   <si>
-    <t>12000.00</t>
-  </si>
-  <si>
     <t>Carla</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Arquiteta</t>
   </si>
   <si>
-    <t>8000.00</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Advogado</t>
   </si>
   <si>
-    <t>11000.00</t>
-  </si>
-  <si>
     <t>Eduardo</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>6000.00</t>
-  </si>
-  <si>
     <t>Fernanda</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
     <t>Designer</t>
   </si>
   <si>
-    <t>6500.00</t>
-  </si>
-  <si>
     <t>Gustavo</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>Engenheiro</t>
   </si>
   <si>
-    <t>8500.00</t>
-  </si>
-  <si>
     <t>Helena</t>
   </si>
   <si>
@@ -146,14 +128,75 @@
     <t>Jornalista</t>
   </si>
   <si>
-    <t>5500.00</t>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>André</t>
+  </si>
+  <si>
+    <t>Arquiteto</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Camila</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Bianca</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Advogada</t>
+  </si>
+  <si>
+    <t>Laura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +222,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,31 +564,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28787FD3-8217-4EB0-BD4E-97495B8A81A2}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -550,138 +596,410 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
         <v>20</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>38</v>
+      <c r="B6" t="s">
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
+      <c r="E7" s="1">
+        <v>6000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="B9">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
+      <c r="E22" s="1">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9500</v>
       </c>
     </row>
   </sheetData>
